--- a/modelisation/Matrice des dépendances fonctionnelles.xlsx
+++ b/modelisation/Matrice des dépendances fonctionnelles.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lecom\Documents\GitHub\GiselleMagicArts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lecom\Documents\GitHub\GiselleMagicArts\modelisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Dépendances fonctionelles" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,35 +24,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>ValidationRecetteProposee</t>
-  </si>
-  <si>
-    <t>TemperatureProposee</t>
-  </si>
-  <si>
-    <t>QuantiteProposee</t>
-  </si>
-  <si>
     <t>FraicheurMinProposee</t>
   </si>
   <si>
     <t>FraicheurMaxProposee</t>
   </si>
   <si>
-    <t>NomPotionPropose</t>
-  </si>
-  <si>
     <t>IDProposition</t>
   </si>
   <si>
-    <t>PrixTotal</t>
-  </si>
-  <si>
     <t>StatutCommande</t>
   </si>
   <si>
@@ -68,54 +53,21 @@
     <t>IDCommande</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>FraicheurMin</t>
   </si>
   <si>
     <t>FraicheurMax</t>
   </si>
   <si>
-    <t>PrixPotion</t>
-  </si>
-  <si>
-    <t>TemperaturePotion</t>
-  </si>
-  <si>
-    <t>NomPotion</t>
-  </si>
-  <si>
-    <t>IDPotion</t>
-  </si>
-  <si>
-    <t>StockIngredients</t>
-  </si>
-  <si>
-    <t>PrixIngredient</t>
-  </si>
-  <si>
     <t>FraicheurIngredient</t>
   </si>
   <si>
     <t>QuantiteIngredient</t>
   </si>
   <si>
-    <t>NomIngredient</t>
-  </si>
-  <si>
     <t>IDIngredient</t>
   </si>
   <si>
-    <t>PrixOnguent</t>
-  </si>
-  <si>
-    <t>NomOnguent</t>
-  </si>
-  <si>
-    <t>IDOnguent</t>
-  </si>
-  <si>
     <t>PrixRecipient</t>
   </si>
   <si>
@@ -134,12 +86,6 @@
     <t>IDDiluant</t>
   </si>
   <si>
-    <t>NomInventeur</t>
-  </si>
-  <si>
-    <t>IDIventeur</t>
-  </si>
-  <si>
     <t>NumeroFournisseur</t>
   </si>
   <si>
@@ -149,19 +95,61 @@
     <t>IDFournisseur</t>
   </si>
   <si>
-    <t>AdresseClient</t>
-  </si>
-  <si>
-    <t>PrenomClient</t>
-  </si>
-  <si>
-    <t>NomClient</t>
-  </si>
-  <si>
-    <t>IDClient</t>
-  </si>
-  <si>
-    <t>NumeroPermis</t>
+    <t>IDPersonne</t>
+  </si>
+  <si>
+    <t>NomPersonne</t>
+  </si>
+  <si>
+    <t>PrenomPersonne</t>
+  </si>
+  <si>
+    <t>AdressePersonne</t>
+  </si>
+  <si>
+    <t>IDProduit</t>
+  </si>
+  <si>
+    <t>NomProduit</t>
+  </si>
+  <si>
+    <t>PrixProduit</t>
+  </si>
+  <si>
+    <t>IDPreparation</t>
+  </si>
+  <si>
+    <t>Temps</t>
+  </si>
+  <si>
+    <t>NomProposition</t>
+  </si>
+  <si>
+    <t>TemperatureProposition</t>
+  </si>
+  <si>
+    <t>IDDiluantProposition</t>
+  </si>
+  <si>
+    <t>IDstock</t>
+  </si>
+  <si>
+    <t>NbStock</t>
+  </si>
+  <si>
+    <t>PrixDiluant</t>
+  </si>
+  <si>
+    <t>TemperaturePreparation</t>
+  </si>
+  <si>
+    <t>PrixTotalCommande</t>
+  </si>
+  <si>
+    <t>QuantiteIngredientProposition</t>
+  </si>
+  <si>
+    <t>IDrecettePreparation</t>
   </si>
 </sst>
 </file>
@@ -191,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -241,17 +229,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -286,20 +263,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -328,10 +296,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -340,27 +308,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,16 +633,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AT46"/>
+  <dimension ref="A1:AT42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AK42" sqref="AK42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="22" width="2.77734375" style="1" customWidth="1"/>
     <col min="23" max="24" width="2.77734375" style="2" customWidth="1"/>
     <col min="25" max="46" width="2.77734375" style="1" customWidth="1"/>
@@ -834,8 +789,8 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>44</v>
+      <c r="B2" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
@@ -886,8 +841,8 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>43</v>
+      <c r="B3" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>0</v>
@@ -940,8 +895,8 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>42</v>
+      <c r="B4" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>0</v>
@@ -994,8 +949,8 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>41</v>
+      <c r="B5" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>0</v>
@@ -1048,8 +1003,8 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>40</v>
+      <c r="B6" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1100,8 +1055,8 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>39</v>
+      <c r="B7" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1154,8 +1109,8 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>38</v>
+      <c r="B8" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1208,8 +1163,8 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>37</v>
+      <c r="B9" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1260,8 +1215,8 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>36</v>
+      <c r="B10" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1314,8 +1269,8 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>45</v>
+      <c r="B11" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1362,14 +1317,14 @@
       <c r="AQ11" s="5"/>
       <c r="AR11" s="5"/>
       <c r="AS11" s="5"/>
-      <c r="AT11" s="9"/>
+      <c r="AT11" s="5"/>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>35</v>
+      <c r="B12" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1414,14 +1369,14 @@
       <c r="AQ12" s="5"/>
       <c r="AR12" s="5"/>
       <c r="AS12" s="5"/>
-      <c r="AT12" s="9"/>
+      <c r="AT12" s="5"/>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>34</v>
+      <c r="B13" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1468,14 +1423,14 @@
       <c r="AQ13" s="5"/>
       <c r="AR13" s="5"/>
       <c r="AS13" s="5"/>
-      <c r="AT13" s="9"/>
+      <c r="AT13" s="5"/>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>33</v>
+      <c r="B14" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1487,8 +1442,10 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="16"/>
+      <c r="M14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="15"/>
       <c r="O14" s="4"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -1520,14 +1477,14 @@
       <c r="AQ14" s="5"/>
       <c r="AR14" s="5"/>
       <c r="AS14" s="5"/>
-      <c r="AT14" s="9"/>
+      <c r="AT14" s="5"/>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>32</v>
+      <c r="B15" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1539,11 +1496,11 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="M15" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="N15" s="5"/>
-      <c r="O15" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="O15" s="5"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
@@ -1574,14 +1531,14 @@
       <c r="AQ15" s="5"/>
       <c r="AR15" s="5"/>
       <c r="AS15" s="5"/>
-      <c r="AT15" s="9"/>
+      <c r="AT15" s="5"/>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>31</v>
+      <c r="B16" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1595,9 +1552,7 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="5"/>
@@ -1628,14 +1583,14 @@
       <c r="AQ16" s="5"/>
       <c r="AR16" s="5"/>
       <c r="AS16" s="5"/>
-      <c r="AT16" s="9"/>
+      <c r="AT16" s="5"/>
     </row>
     <row r="17" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>30</v>
+      <c r="B17" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1649,11 +1604,11 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="O17" s="5"/>
       <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
+      <c r="Q17" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="R17" s="4"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
@@ -1682,13 +1637,13 @@
       <c r="AQ17" s="5"/>
       <c r="AR17" s="5"/>
       <c r="AS17" s="5"/>
-      <c r="AT17" s="9"/>
+      <c r="AT17" s="5"/>
     </row>
     <row r="18" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="5"/>
@@ -1705,7 +1660,9 @@
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
+      <c r="Q18" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="R18" s="5"/>
       <c r="S18" s="4"/>
       <c r="T18" s="5"/>
@@ -1734,14 +1691,14 @@
       <c r="AQ18" s="5"/>
       <c r="AR18" s="5"/>
       <c r="AS18" s="5"/>
-      <c r="AT18" s="9"/>
+      <c r="AT18" s="5"/>
     </row>
     <row r="19" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>28</v>
+      <c r="B19" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1759,9 +1716,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
-      <c r="S19" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="S19" s="5"/>
       <c r="T19" s="4"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
@@ -1788,14 +1743,14 @@
       <c r="AQ19" s="5"/>
       <c r="AR19" s="5"/>
       <c r="AS19" s="5"/>
-      <c r="AT19" s="9"/>
+      <c r="AT19" s="5"/>
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>27</v>
+      <c r="B20" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1813,10 +1768,10 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
-      <c r="S20" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="T20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="U20" s="4"/>
       <c r="V20" s="5"/>
       <c r="W20" s="9"/>
@@ -1842,14 +1797,14 @@
       <c r="AQ20" s="5"/>
       <c r="AR20" s="5"/>
       <c r="AS20" s="5"/>
-      <c r="AT20" s="9"/>
+      <c r="AT20" s="5"/>
     </row>
     <row r="21" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>26</v>
+      <c r="B21" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1894,14 +1849,14 @@
       <c r="AQ21" s="5"/>
       <c r="AR21" s="5"/>
       <c r="AS21" s="5"/>
-      <c r="AT21" s="9"/>
+      <c r="AT21" s="5"/>
     </row>
     <row r="22" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>25</v>
+      <c r="B22" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1948,14 +1903,14 @@
       <c r="AQ22" s="5"/>
       <c r="AR22" s="5"/>
       <c r="AS22" s="5"/>
-      <c r="AT22" s="9"/>
+      <c r="AT22" s="5"/>
     </row>
     <row r="23" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>24</v>
+      <c r="B23" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -2002,14 +1957,14 @@
       <c r="AQ23" s="5"/>
       <c r="AR23" s="5"/>
       <c r="AS23" s="5"/>
-      <c r="AT23" s="9"/>
+      <c r="AT23" s="5"/>
     </row>
     <row r="24" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>23</v>
+      <c r="B24" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -2035,7 +1990,7 @@
       </c>
       <c r="W24" s="9"/>
       <c r="X24" s="5"/>
-      <c r="Y24" s="15"/>
+      <c r="Y24" s="14"/>
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
@@ -2056,14 +2011,14 @@
       <c r="AQ24" s="5"/>
       <c r="AR24" s="5"/>
       <c r="AS24" s="5"/>
-      <c r="AT24" s="9"/>
+      <c r="AT24" s="5"/>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>22</v>
+      <c r="B25" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -2110,14 +2065,14 @@
       <c r="AQ25" s="5"/>
       <c r="AR25" s="5"/>
       <c r="AS25" s="5"/>
-      <c r="AT25" s="9"/>
+      <c r="AT25" s="5"/>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>21</v>
+      <c r="B26" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -2164,14 +2119,14 @@
       <c r="AQ26" s="5"/>
       <c r="AR26" s="5"/>
       <c r="AS26" s="5"/>
-      <c r="AT26" s="9"/>
+      <c r="AT26" s="5"/>
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>20</v>
+      <c r="B27" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -2216,44 +2171,44 @@
       <c r="AQ27" s="5"/>
       <c r="AR27" s="5"/>
       <c r="AS27" s="5"/>
-      <c r="AT27" s="9"/>
+      <c r="AT27" s="5"/>
     </row>
     <row r="28" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
+      <c r="B28" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="14"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="13"/>
       <c r="X28" s="5"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="12"/>
-      <c r="AB28" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="11"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="10"/>
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
@@ -2270,14 +2225,14 @@
       <c r="AQ28" s="5"/>
       <c r="AR28" s="5"/>
       <c r="AS28" s="5"/>
-      <c r="AT28" s="9"/>
+      <c r="AT28" s="5"/>
     </row>
     <row r="29" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>18</v>
+      <c r="B29" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -2324,14 +2279,14 @@
       <c r="AQ29" s="5"/>
       <c r="AR29" s="5"/>
       <c r="AS29" s="5"/>
-      <c r="AT29" s="9"/>
+      <c r="AT29" s="5"/>
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>17</v>
+      <c r="B30" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -2378,14 +2333,14 @@
       <c r="AQ30" s="5"/>
       <c r="AR30" s="5"/>
       <c r="AS30" s="5"/>
-      <c r="AT30" s="9"/>
+      <c r="AT30" s="5"/>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>16</v>
+      <c r="B31" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -2406,16 +2361,14 @@
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
-      <c r="V31" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="V31" s="5"/>
       <c r="W31" s="9"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="8"/>
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
       <c r="AB31" s="5" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="5"/>
       <c r="AD31" s="5"/>
@@ -2434,14 +2387,14 @@
       <c r="AQ31" s="5"/>
       <c r="AR31" s="5"/>
       <c r="AS31" s="5"/>
-      <c r="AT31" s="9"/>
+      <c r="AT31" s="5"/>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>15</v>
+      <c r="B32" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -2462,16 +2415,14 @@
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
-      <c r="V32" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="V32" s="5"/>
       <c r="W32" s="9"/>
       <c r="X32" s="5"/>
       <c r="Y32" s="8"/>
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
       <c r="AB32" s="5" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
@@ -2490,14 +2441,14 @@
       <c r="AQ32" s="5"/>
       <c r="AR32" s="5"/>
       <c r="AS32" s="5"/>
-      <c r="AT32" s="9"/>
+      <c r="AT32" s="5"/>
     </row>
     <row r="33" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>13</v>
+      <c r="B33" s="16" t="s">
+        <v>3</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -2542,14 +2493,14 @@
       <c r="AQ33" s="5"/>
       <c r="AR33" s="5"/>
       <c r="AS33" s="5"/>
-      <c r="AT33" s="9"/>
+      <c r="AT33" s="5"/>
     </row>
     <row r="34" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>12</v>
+      <c r="B34" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -2596,14 +2547,14 @@
       <c r="AQ34" s="5"/>
       <c r="AR34" s="5"/>
       <c r="AS34" s="5"/>
-      <c r="AT34" s="9"/>
+      <c r="AT34" s="5"/>
     </row>
     <row r="35" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>11</v>
+      <c r="B35" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -2650,14 +2601,14 @@
       <c r="AQ35" s="5"/>
       <c r="AR35" s="5"/>
       <c r="AS35" s="5"/>
-      <c r="AT35" s="9"/>
+      <c r="AT35" s="5"/>
     </row>
     <row r="36" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>10</v>
+      <c r="B36" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -2704,14 +2655,14 @@
       <c r="AQ36" s="5"/>
       <c r="AR36" s="5"/>
       <c r="AS36" s="5"/>
-      <c r="AT36" s="9"/>
+      <c r="AT36" s="5"/>
     </row>
     <row r="37" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>9</v>
+      <c r="B37" s="16" t="s">
+        <v>2</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2758,14 +2709,14 @@
       <c r="AQ37" s="5"/>
       <c r="AR37" s="5"/>
       <c r="AS37" s="5"/>
-      <c r="AT37" s="9"/>
+      <c r="AT37" s="5"/>
     </row>
     <row r="38" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>8</v>
+      <c r="B38" s="16" t="s">
+        <v>1</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2812,14 +2763,14 @@
       <c r="AQ38" s="5"/>
       <c r="AR38" s="5"/>
       <c r="AS38" s="5"/>
-      <c r="AT38" s="9"/>
+      <c r="AT38" s="5"/>
     </row>
     <row r="39" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>7</v>
+      <c r="B39" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -2852,7 +2803,9 @@
       <c r="AE39" s="5"/>
       <c r="AF39" s="5"/>
       <c r="AG39" s="5"/>
-      <c r="AH39" s="5"/>
+      <c r="AH39" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="AI39" s="5"/>
       <c r="AJ39" s="5"/>
       <c r="AK39" s="5"/>
@@ -2864,14 +2817,14 @@
       <c r="AQ39" s="5"/>
       <c r="AR39" s="5"/>
       <c r="AS39" s="5"/>
-      <c r="AT39" s="9"/>
+      <c r="AT39" s="5"/>
     </row>
     <row r="40" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>6</v>
+      <c r="B40" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -2910,22 +2863,20 @@
       <c r="AK40" s="5"/>
       <c r="AL40" s="5"/>
       <c r="AM40" s="5"/>
-      <c r="AN40" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="AN40" s="5"/>
       <c r="AO40" s="4"/>
       <c r="AP40" s="5"/>
       <c r="AQ40" s="5"/>
       <c r="AR40" s="5"/>
       <c r="AS40" s="5"/>
-      <c r="AT40" s="9"/>
+      <c r="AT40" s="5"/>
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>5</v>
+      <c r="B41" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -2964,22 +2915,22 @@
       <c r="AK41" s="5"/>
       <c r="AL41" s="5"/>
       <c r="AM41" s="5"/>
-      <c r="AN41" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO41" s="5"/>
+      <c r="AN41" s="5"/>
+      <c r="AO41" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="AP41" s="4"/>
       <c r="AQ41" s="5"/>
       <c r="AR41" s="5"/>
       <c r="AS41" s="5"/>
-      <c r="AT41" s="9"/>
+      <c r="AT41" s="5"/>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>4</v>
+      <c r="B42" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -3018,228 +2969,18 @@
       <c r="AK42" s="5"/>
       <c r="AL42" s="5"/>
       <c r="AM42" s="5"/>
-      <c r="AN42" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO42" s="5"/>
+      <c r="AN42" s="5"/>
+      <c r="AO42" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="AP42" s="5"/>
       <c r="AQ42" s="4"/>
       <c r="AR42" s="5"/>
       <c r="AS42" s="5"/>
-      <c r="AT42" s="9"/>
-    </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
-        <v>42</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="5"/>
-      <c r="AA43" s="5"/>
-      <c r="AB43" s="5"/>
-      <c r="AC43" s="5"/>
-      <c r="AD43" s="5"/>
-      <c r="AE43" s="5"/>
-      <c r="AF43" s="5"/>
-      <c r="AG43" s="5"/>
-      <c r="AH43" s="5"/>
-      <c r="AI43" s="5"/>
-      <c r="AJ43" s="5"/>
-      <c r="AK43" s="5"/>
-      <c r="AL43" s="5"/>
-      <c r="AM43" s="5"/>
-      <c r="AN43" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO43" s="5"/>
-      <c r="AP43" s="5"/>
-      <c r="AQ43" s="5"/>
-      <c r="AR43" s="4"/>
-      <c r="AS43" s="5"/>
-      <c r="AT43" s="9"/>
-    </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A44" s="5">
-        <v>43</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="9"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="8"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
-      <c r="AB44" s="5"/>
-      <c r="AC44" s="5"/>
-      <c r="AD44" s="5"/>
-      <c r="AE44" s="5"/>
-      <c r="AF44" s="5"/>
-      <c r="AG44" s="5"/>
-      <c r="AH44" s="5"/>
-      <c r="AI44" s="5"/>
-      <c r="AJ44" s="5"/>
-      <c r="AK44" s="5"/>
-      <c r="AL44" s="5"/>
-      <c r="AM44" s="5"/>
-      <c r="AN44" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO44" s="5"/>
-      <c r="AP44" s="5"/>
-      <c r="AQ44" s="5"/>
-      <c r="AR44" s="5"/>
-      <c r="AS44" s="4"/>
-      <c r="AT44" s="9"/>
-    </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
-        <v>44</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="9"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="8"/>
-      <c r="Z45" s="5"/>
-      <c r="AA45" s="5"/>
-      <c r="AB45" s="5"/>
-      <c r="AC45" s="5"/>
-      <c r="AD45" s="5"/>
-      <c r="AE45" s="5"/>
-      <c r="AF45" s="5"/>
-      <c r="AG45" s="5"/>
-      <c r="AH45" s="5"/>
-      <c r="AI45" s="5"/>
-      <c r="AJ45" s="5"/>
-      <c r="AK45" s="5"/>
-      <c r="AL45" s="5"/>
-      <c r="AM45" s="5"/>
-      <c r="AN45" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO45" s="5"/>
-      <c r="AP45" s="5"/>
-      <c r="AQ45" s="5"/>
-      <c r="AR45" s="5"/>
-      <c r="AS45" s="5"/>
-      <c r="AT45" s="7"/>
-    </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A46" s="19"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
-      <c r="U46" s="19"/>
-      <c r="V46" s="19"/>
-      <c r="W46" s="19"/>
-      <c r="X46" s="19"/>
-      <c r="Y46" s="19"/>
-      <c r="Z46" s="19"/>
-      <c r="AA46" s="19"/>
-      <c r="AB46" s="19"/>
-      <c r="AC46" s="19"/>
-      <c r="AD46" s="19"/>
-      <c r="AE46" s="19"/>
-      <c r="AF46" s="19"/>
-      <c r="AG46" s="19"/>
-      <c r="AH46" s="19"/>
-      <c r="AI46" s="19"/>
-      <c r="AJ46" s="19"/>
-      <c r="AK46" s="19"/>
-      <c r="AL46" s="19"/>
-      <c r="AM46" s="19"/>
-      <c r="AN46" s="19"/>
-      <c r="AO46" s="19"/>
-      <c r="AP46" s="19"/>
-      <c r="AQ46" s="19"/>
-      <c r="AR46" s="19"/>
-      <c r="AS46" s="19"/>
-      <c r="AT46" s="18"/>
+      <c r="AT42" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/modelisation/Matrice des dépendances fonctionnelles.xlsx
+++ b/modelisation/Matrice des dépendances fonctionnelles.xlsx
@@ -635,7 +635,7 @@
   </sheetPr>
   <dimension ref="A1:AT42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AK42" sqref="AK42"/>
     </sheetView>
   </sheetViews>
@@ -2981,6 +2981,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="57" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>